--- a/app/src/test/assets/Password Recovery Test Report.xlsx
+++ b/app/src/test/assets/Password Recovery Test Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerst_000\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Uni\Project\Android\2018-02-healthcare-visualization-data-tracking-application\app\src\test\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10482C45-E65C-4313-92A0-929A2EB6DE9C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE999FB2-28D1-482E-B8BC-110929218EC7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{A330BECD-E836-4AC6-938E-7E613B009CCC}"/>
   </bookViews>
@@ -243,9 +243,6 @@
     <t>As expected - clicking okay on this box should take you to the previous activity (but as that does not exist yet - nothing happens)</t>
   </si>
   <si>
-    <t>Code releases all resources on exit - as per Java/JavaScript functions</t>
-  </si>
-  <si>
     <t>The unit test code and test case are present in the repository branch - this manual test document below describes each feature that was tested programmatically as well as manually</t>
   </si>
   <si>
@@ -265,6 +262,9 @@
   </si>
   <si>
     <t>Some commented out sections are present - mostly draft integration calls that will replace demo code during integration</t>
+  </si>
+  <si>
+    <t>Code releases all resources on exit - as per Java functions</t>
   </si>
 </sst>
 </file>
@@ -670,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -731,6 +731,102 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -740,61 +836,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -806,68 +863,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1186,7 +1183,7 @@
   <dimension ref="A1:X50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:H26"/>
+      <selection activeCell="B25" sqref="B25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,14 +1208,14 @@
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
@@ -1290,15 +1287,15 @@
       <c r="A9" s="15">
         <v>1</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="76"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="42"/>
       <c r="I9" s="25" t="s">
         <v>21</v>
       </c>
@@ -1307,15 +1304,15 @@
       <c r="A10" s="15">
         <v>2</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="79"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="45"/>
       <c r="I10" s="25" t="s">
         <v>21</v>
       </c>
@@ -1324,15 +1321,15 @@
       <c r="A11" s="15">
         <v>3</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="79"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
       <c r="I11" s="25" t="s">
         <v>23</v>
       </c>
@@ -1341,15 +1338,15 @@
       <c r="A12" s="15">
         <v>4</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="79"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
       <c r="I12" s="25" t="s">
         <v>21</v>
       </c>
@@ -1358,15 +1355,15 @@
       <c r="A13" s="15">
         <v>5</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="79"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
       <c r="I13" s="25" t="s">
         <v>27</v>
       </c>
@@ -1375,15 +1372,15 @@
       <c r="A14" s="15">
         <v>6</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="79"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
       <c r="I14" s="25" t="s">
         <v>21</v>
       </c>
@@ -1392,15 +1389,15 @@
       <c r="A15" s="15">
         <v>7</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="79"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
       <c r="I15" s="25" t="s">
         <v>21</v>
       </c>
@@ -1409,15 +1406,15 @@
       <c r="A16" s="15">
         <v>8</v>
       </c>
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="79"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
       <c r="I16" s="25" t="s">
         <v>21</v>
       </c>
@@ -1426,15 +1423,15 @@
       <c r="A17" s="15">
         <v>9</v>
       </c>
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="79"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="45"/>
       <c r="I17" s="25" t="s">
         <v>21</v>
       </c>
@@ -1443,15 +1440,15 @@
       <c r="A18" s="15">
         <v>10</v>
       </c>
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="79"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
       <c r="I18" s="25" t="s">
         <v>31</v>
       </c>
@@ -1460,15 +1457,15 @@
       <c r="A19" s="15">
         <v>11</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="79"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
       <c r="I19" s="25" t="s">
         <v>21</v>
       </c>
@@ -1477,15 +1474,15 @@
       <c r="A20" s="15">
         <v>12</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="79"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
       <c r="I20" s="25" t="s">
         <v>21</v>
       </c>
@@ -1494,15 +1491,15 @@
       <c r="A21" s="15">
         <v>13</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="79"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="45"/>
       <c r="I21" s="25" t="s">
         <v>40</v>
       </c>
@@ -1511,15 +1508,15 @@
       <c r="A22" s="27">
         <v>14</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="82"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="48"/>
       <c r="I22" s="28" t="s">
         <v>21</v>
       </c>
@@ -1538,63 +1535,63 @@
     </row>
     <row r="24" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
     </row>
     <row r="25" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
-      <c r="B25" s="73" t="s">
+      <c r="B25" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
     </row>
     <row r="26" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
-      <c r="B26" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
+      <c r="B26" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
-      <c r="B27" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
+      <c r="B27" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
     </row>
     <row r="28" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
-      <c r="B28" s="83" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
+      <c r="B28" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
@@ -1606,64 +1603,64 @@
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="68"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="60"/>
     </row>
     <row r="31" spans="1:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="69"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="70"/>
-      <c r="P31" s="71"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="63"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54" t="s">
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="56"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="66"/>
       <c r="S32" s="9"/>
       <c r="T32" s="33"/>
       <c r="U32" s="18"/>
@@ -1672,22 +1669,22 @@
       <c r="X32" s="9"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="57"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="67"/>
       <c r="S33" s="9"/>
       <c r="T33" s="33"/>
       <c r="U33" s="18"/>
@@ -1696,26 +1693,26 @@
       <c r="X33" s="9"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55" t="s">
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="57"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="65"/>
+      <c r="P34" s="67"/>
       <c r="S34" s="9"/>
       <c r="T34" s="26"/>
       <c r="U34" s="26"/>
@@ -1724,22 +1721,22 @@
       <c r="X34" s="9"/>
     </row>
     <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="57"/>
+      <c r="A35" s="65"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="67"/>
       <c r="S35" s="9"/>
       <c r="T35" s="26"/>
       <c r="U35" s="34"/>
@@ -1748,44 +1745,44 @@
       <c r="X35" s="9"/>
     </row>
     <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="57"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="67"/>
       <c r="T36" s="16"/>
       <c r="U36" s="17"/>
     </row>
     <row r="37" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="58"/>
-      <c r="N37" s="58"/>
-      <c r="O37" s="58"/>
-      <c r="P37" s="59"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="69"/>
       <c r="T37" s="16"/>
       <c r="U37" s="16"/>
       <c r="V37" s="18"/>
@@ -1794,26 +1791,26 @@
       <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="63" t="s">
+      <c r="C38" s="52"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="63" t="s">
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="64"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="64" t="s">
+      <c r="I38" s="73"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="64"/>
-      <c r="M38" s="65"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="74"/>
       <c r="N38" s="3" t="s">
         <v>2</v>
       </c>
@@ -1824,325 +1821,325 @@
       <c r="A39" s="1">
         <v>1</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="51" t="s">
+      <c r="C39" s="55"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="52"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="51" t="s">
+      <c r="F39" s="75"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="I39" s="52"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="52" t="s">
+      <c r="I39" s="75"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="L39" s="52"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="60" t="s">
+      <c r="L39" s="75"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O39" s="61"/>
-      <c r="P39" s="62"/>
+      <c r="O39" s="80"/>
+      <c r="P39" s="81"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="42" t="s">
+      <c r="C40" s="55"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="F40" s="43"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="42" t="s">
+      <c r="F40" s="55"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="43"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="38" t="s">
+      <c r="I40" s="55"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L40" s="39"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="42" t="s">
+      <c r="L40" s="71"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="O40" s="43"/>
-      <c r="P40" s="44"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="56"/>
     </row>
     <row r="41" spans="1:24" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2.1</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="42" t="s">
+      <c r="C41" s="55"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="43"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="38" t="s">
+      <c r="F41" s="55"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="I41" s="39"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L41" s="39"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="40"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="L41" s="71"/>
+      <c r="M41" s="72"/>
+      <c r="N41" s="70"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="72"/>
     </row>
     <row r="42" spans="1:24" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="42" t="s">
+      <c r="C42" s="71"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="43"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="42" t="s">
+      <c r="F42" s="55"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="I42" s="43"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="39" t="s">
+      <c r="I42" s="55"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="L42" s="39"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="O42" s="39"/>
-      <c r="P42" s="40"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="O42" s="71"/>
+      <c r="P42" s="72"/>
     </row>
     <row r="43" spans="1:24" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="39"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="42" t="s">
+      <c r="C43" s="71"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="F43" s="43"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="42" t="s">
+      <c r="F43" s="55"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="I43" s="43"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="39" t="s">
+      <c r="I43" s="55"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="L43" s="39"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="38" t="s">
+      <c r="L43" s="71"/>
+      <c r="M43" s="72"/>
+      <c r="N43" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="O43" s="39"/>
-      <c r="P43" s="40"/>
+      <c r="O43" s="71"/>
+      <c r="P43" s="72"/>
     </row>
     <row r="44" spans="1:24" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2.4</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="39"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="42" t="s">
+      <c r="C44" s="71"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="F44" s="43"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="42" t="s">
+      <c r="F44" s="55"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="I44" s="43"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="L44" s="39"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="38" t="s">
+      <c r="I44" s="55"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="L44" s="71"/>
+      <c r="M44" s="72"/>
+      <c r="N44" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="O44" s="39"/>
-      <c r="P44" s="40"/>
+      <c r="O44" s="71"/>
+      <c r="P44" s="72"/>
     </row>
     <row r="45" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>3</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="43"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="42" t="s">
+      <c r="C45" s="55"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="43"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="42" t="s">
+      <c r="F45" s="55"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="I45" s="43"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="43" t="s">
+      <c r="I45" s="55"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="L45" s="43"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="38" t="s">
+      <c r="L45" s="55"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="O45" s="39"/>
-      <c r="P45" s="40"/>
+      <c r="O45" s="71"/>
+      <c r="P45" s="72"/>
     </row>
     <row r="46" spans="1:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>3.1</v>
       </c>
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="42" t="s">
+      <c r="C46" s="55"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="F46" s="43"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="38" t="s">
+      <c r="F46" s="55"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="I46" s="39"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="39" t="s">
+      <c r="I46" s="71"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="L46" s="71"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="L46" s="39"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="O46" s="39"/>
-      <c r="P46" s="40"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="72"/>
     </row>
     <row r="47" spans="1:24" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>3.2</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="42" t="s">
+      <c r="C47" s="55"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="43"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="42" t="s">
+      <c r="F47" s="55"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="I47" s="43"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="39" t="s">
+      <c r="I47" s="55"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="L47" s="39"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="O47" s="39"/>
-      <c r="P47" s="40"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="72"/>
+      <c r="N47" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="O47" s="71"/>
+      <c r="P47" s="72"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>3.3</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="42" t="s">
+      <c r="C48" s="55"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="43"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="42" t="s">
+      <c r="F48" s="55"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="I48" s="43"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="43" t="s">
+      <c r="I48" s="55"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="L48" s="43"/>
-      <c r="M48" s="44"/>
-      <c r="N48" s="42" t="s">
+      <c r="L48" s="55"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="O48" s="43"/>
-      <c r="P48" s="44"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="56"/>
     </row>
     <row r="49" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>3.4</v>
       </c>
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="46"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="45" t="s">
+      <c r="C49" s="52"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="46"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="45" t="s">
+      <c r="F49" s="52"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="I49" s="46"/>
-      <c r="J49" s="47"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="53"/>
       <c r="K49" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L49" s="49"/>
       <c r="M49" s="50"/>
-      <c r="N49" s="48" t="s">
+      <c r="N49" s="57" t="s">
         <v>71</v>
       </c>
       <c r="O49" s="49"/>
@@ -2151,6 +2148,75 @@
     <row r="50" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="A30:P31"/>
+    <mergeCell ref="A32:H33"/>
+    <mergeCell ref="I32:P33"/>
+    <mergeCell ref="I34:P35"/>
+    <mergeCell ref="A34:H35"/>
+    <mergeCell ref="A36:P37"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
     <mergeCell ref="B28:H28"/>
     <mergeCell ref="B27:H27"/>
     <mergeCell ref="B24:H24"/>
@@ -2167,75 +2233,6 @@
     <mergeCell ref="B19:H19"/>
     <mergeCell ref="B20:H20"/>
     <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="A30:P31"/>
-    <mergeCell ref="A32:H33"/>
-    <mergeCell ref="I32:P33"/>
-    <mergeCell ref="I34:P35"/>
-    <mergeCell ref="A34:H35"/>
-    <mergeCell ref="A36:P37"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{130C7B83-F1BE-4820-9BA1-35F565B1F453}"/>
